--- a/RandomRows/csv_example/D1_250206.xlsx
+++ b/RandomRows/csv_example/D1_250206.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vaness/Desktop/Shadows Analysis/250206_D1_TIGIT_PD1+KLRG+p30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EECDE3B-16EC-CB4F-AD4F-02CB0E7F5F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50D8618-B0A5-9943-8A41-C35DBA95B324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" xr2:uid="{5EEB8695-3F72-4148-BAD3-3A9CD5289FE8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="1" xr2:uid="{5EEB8695-3F72-4148-BAD3-3A9CD5289FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="ICAM" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E5CAC6-FE72-4F47-A0C4-071D2FB874FB}">
   <dimension ref="B1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AA5955-DD36-6645-B093-E1B4289EBBC2}">
   <dimension ref="B1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="E36" zoomScale="200" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="173" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3646,7 +3646,14 @@
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="P53" s="2"/>
+      <c r="L53">
+        <f>AVERAGE(L2:L52)</f>
+        <v>252755.99789074509</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="M53:P53" si="4">AVERAGE(P2:P52)</f>
+        <v>237337.05301951646</v>
+      </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="P54" s="2"/>
@@ -3908,8 +3915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A66FE8-21DE-CE48-876D-66E4EA54BB38}">
   <dimension ref="B1:P64"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="108" workbookViewId="0">
-      <selection activeCell="P52" sqref="P2:P52"/>
+    <sheetView topLeftCell="A33" zoomScale="108" workbookViewId="0">
+      <selection activeCell="L15" sqref="L2:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6469,8 +6476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039B52D6-9F2A-484F-89B4-A7D572B08649}">
   <dimension ref="B1:P158"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="P58" sqref="P2:P58"/>
+    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15514,8 +15521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CC09E9-9679-DD40-8805-40E0049A75D2}">
   <dimension ref="B1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A14" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
